--- a/用例数据/深A/DVP改革/备付金改革/测试结果.xlsx
+++ b/用例数据/深A/DVP改革/备付金改革/测试结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -141,16 +141,10 @@
     <t>20221121000000</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20221121</t>
   </si>
   <si>
     <t>20221128</t>
-  </si>
-  <si>
-    <t>0.0000000000</t>
   </si>
   <si>
     <t>30500052</t>
@@ -574,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,6 +582,7 @@
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -714,55 +709,49 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,55 +759,49 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -826,58 +809,52 @@
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -885,55 +862,49 @@
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -941,55 +912,49 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -997,55 +962,49 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1053,58 +1012,52 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
